--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\BCI_MI_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD990136-4593-4345-8120-55D33FF6BF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F67B7EC-6CA6-487A-8917-B82DE999ABB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1374,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DA7A47-44FB-41BA-AF40-35FC60E6C4E5}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00_Nueron_maze\BCI_TransferLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\BCI_MI_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A4B337-7EA0-437D-91F9-867F3816C2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F114B1-C33A-491D-9A22-6C176AC05380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TF_withinData" sheetId="1" r:id="rId1"/>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3417,16 +3417,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3436,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3254A79-D692-4839-8C5B-E664B8F797EF}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6262,8 +6262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319FF6FB-F64D-4308-8F1B-69ACC4EC8780}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E25"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\BCI_MI_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F114B1-C33A-491D-9A22-6C176AC05380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EC1969-D932-4A10-B265-085489785337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,7 +603,7 @@
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:V44"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3437,7 +3437,7 @@
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
